--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3278.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3278.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.828080921307071</v>
+        <v>1.246358513832092</v>
       </c>
       <c r="B1">
-        <v>1.175425196717152</v>
+        <v>2.369637489318848</v>
       </c>
       <c r="C1">
-        <v>2.182705487579442</v>
+        <v>3.309111356735229</v>
       </c>
       <c r="D1">
-        <v>5.1138181682281</v>
+        <v>1.653137564659119</v>
       </c>
       <c r="E1">
-        <v>2.265932036514275</v>
+        <v>1.1922367811203</v>
       </c>
     </row>
   </sheetData>
